--- a/excel_files/techns.xlsx
+++ b/excel_files/techns.xlsx
@@ -1,33 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11760" windowWidth="20730" xWindow="-105" yWindow="-105"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="techns" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="techns" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+  <si>
+    <t>tech_id</t>
+  </si>
+  <si>
+    <t>tech_name</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>berlin12</t>
+  </si>
+  <si>
+    <t>123456789a</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>helsinki</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>cairo123</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>paris123</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,16 +86,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -318,66 +366,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="14.5703125"/>
-    <col customWidth="1" max="2" min="2" width="19"/>
-    <col customWidth="1" max="3" min="3" width="16.7109375"/>
-    <col customWidth="1" max="4" min="4" width="23.7109375"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>tech_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>tech_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>username</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>pwd</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>123</v>
-      </c>
-      <c r="D2" s="1" t="n"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>597041</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>234</v>
-      </c>
-      <c r="D3" s="1" t="n"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>748836</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>345</v>
-      </c>
-      <c r="D4" s="1" t="n"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>330228</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>151077</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel_files/techns.xlsx
+++ b/excel_files/techns.xlsx
@@ -1,76 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11760" windowWidth="20730" xWindow="-105" yWindow="-105"/>
   </bookViews>
   <sheets>
-    <sheet name="techns" sheetId="1" r:id="rId1"/>
+    <sheet name="techns" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>tech_id</t>
-  </si>
-  <si>
-    <t>tech_name</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>pwd</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>berlin12</t>
-  </si>
-  <si>
-    <t>123456789a</t>
-  </si>
-  <si>
-    <t>Helsinki</t>
-  </si>
-  <si>
-    <t>helsinki</t>
-  </si>
-  <si>
-    <t>Cairo</t>
-  </si>
-  <si>
-    <t>cairo123</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>paris123</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,21 +43,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -366,92 +317,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="14.5703125"/>
+    <col customWidth="1" max="2" min="2" width="19"/>
+    <col customWidth="1" max="3" min="3" width="16.7109375"/>
+    <col customWidth="1" max="4" min="4" width="23.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tech_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tech_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>pwd</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>597041</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>berlin12</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123456789a</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>748836</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Helsinki</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>helsinki</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>123456789a</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>330228</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>cairo123</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>123456789a</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>151077</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>paris123</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>123456789a</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>